--- a/examples/wangetal2018/out/NetworkFiles/DR_1.0_a_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/DR_1.0_a_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>pipe_name</t>
   </si>
@@ -72,9 +72,87 @@
     <t>PI09</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
@@ -84,19 +162,37 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
   </si>
   <si>
     <t>N03</t>
@@ -532,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,16 +665,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>838.2</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -587,7 +683,7 @@
         <v>12.7</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -595,16 +691,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>838.2</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -613,7 +709,7 @@
         <v>12.7</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -621,16 +717,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>838.2</v>
       </c>
       <c r="E4">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -639,7 +735,7 @@
         <v>12.7</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -647,16 +743,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>838.2</v>
       </c>
       <c r="E5">
-        <v>48.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -665,7 +761,7 @@
         <v>12.7</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -673,16 +769,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>838.2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -691,7 +787,7 @@
         <v>12.7</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -699,16 +795,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>838.2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -717,7 +813,7 @@
         <v>12.7</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -725,16 +821,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>838.2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -743,7 +839,7 @@
         <v>12.7</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -751,16 +847,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>838.2</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -769,7 +865,7 @@
         <v>12.7</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -777,25 +873,441 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>838.2</v>
+      </c>
+      <c r="E10">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F10">
+        <v>0.012</v>
+      </c>
+      <c r="G10">
+        <v>12.7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>838.2</v>
+      </c>
+      <c r="E11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="F11">
+        <v>0.012</v>
+      </c>
+      <c r="G11">
+        <v>12.7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>838.2</v>
+      </c>
+      <c r="E12">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="F12">
+        <v>0.012</v>
+      </c>
+      <c r="G12">
+        <v>12.7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>838.2</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>0.012</v>
+      </c>
+      <c r="G13">
+        <v>12.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>838.2</v>
+      </c>
+      <c r="E14">
+        <v>15.75</v>
+      </c>
+      <c r="F14">
+        <v>0.012</v>
+      </c>
+      <c r="G14">
+        <v>12.7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>838.2</v>
+      </c>
+      <c r="E15">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="F15">
+        <v>0.012</v>
+      </c>
+      <c r="G15">
+        <v>12.7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>838.2</v>
+      </c>
+      <c r="E16">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="F16">
+        <v>0.012</v>
+      </c>
+      <c r="G16">
+        <v>12.7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>838.2</v>
+      </c>
+      <c r="E17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F17">
+        <v>0.012</v>
+      </c>
+      <c r="G17">
+        <v>12.7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>838.2</v>
+      </c>
+      <c r="E18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>12.7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>838.2</v>
+      </c>
+      <c r="E19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>12.7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>838.2</v>
+      </c>
+      <c r="E20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>12.7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>838.2</v>
+      </c>
+      <c r="E21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>12.7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>838.2</v>
+      </c>
+      <c r="E22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>12.7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="D10">
-        <v>838.2</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>0.012</v>
-      </c>
-      <c r="G10">
-        <v>12.7</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>838.2</v>
+      </c>
+      <c r="E23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>12.7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>838.2</v>
+      </c>
+      <c r="E24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>12.7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>838.2</v>
+      </c>
+      <c r="E25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>12.7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>838.2</v>
+      </c>
+      <c r="E26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>12.7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -813,15 +1325,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>8.396183393723186</v>
@@ -829,7 +1341,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>8.396183393723186</v>
@@ -837,7 +1349,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>8.396183393723186</v>
@@ -845,7 +1357,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>8.396183393723186</v>
@@ -853,7 +1365,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>8.396183393723186</v>
@@ -861,7 +1373,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>8.396183393723186</v>
@@ -869,7 +1381,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>8.396183393723186</v>
@@ -877,7 +1389,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>8.396183393723186</v>
@@ -885,7 +1397,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>8.396183393723186</v>
@@ -893,7 +1405,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>8.396183393723186</v>
@@ -901,7 +1413,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>8.396183393723186</v>
@@ -909,7 +1421,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>8.396183393723186</v>
@@ -917,9 +1429,137 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B14">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>8.396183393723186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
         <v>8.396183393723186</v>
       </c>
     </row>
@@ -938,7 +1578,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -947,30 +1587,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>8.396183393723186</v>
@@ -990,13 +1630,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>8.396183393723186</v>
@@ -1016,13 +1656,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>8.396183393723186</v>
@@ -1055,24 +1695,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>8.396183393723186</v>
@@ -1093,21 +1733,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1115,10 +1755,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1126,10 +1766,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1150,15 +1790,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1166,7 +1806,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
